--- a/VersionRecords/Version 3.2.0.5/BS权限/新增权限配置表-极光组.xlsx
+++ b/VersionRecords/Version 3.2.0.5/BS权限/新增权限配置表-极光组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>级别</t>
   </si>
@@ -100,12 +100,36 @@
   <si>
     <t>极光租</t>
   </si>
+  <si>
+    <t>金融管理-磨菇宝管理-蘑菇宝催款管理-导出蘑菇宝催款列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlordCredit/exportListRenterLoanRepayPlan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出蘑菇宝催款列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光租</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +173,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -170,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,13 +237,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +287,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +602,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,15 +670,31 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="10">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
